--- a/音階.xlsx
+++ b/音階.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitRepositories\UneasinessEq\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -431,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>8</v>
       </c>
@@ -450,7 +450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>3816.7938931297708</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -482,7 +482,7 @@
         <v>3401.3605442176868</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>3030.3030303030305</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -514,7 +514,7 @@
         <v>2865.3295128939826</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -529,8 +529,12 @@
         <f t="shared" si="1"/>
         <v>2551.0204081632651</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <f>E6/2</f>
+        <v>1275.5102040816325</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -546,7 +550,7 @@
         <v>2272.7272727272725</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -561,8 +565,12 @@
         <f t="shared" si="1"/>
         <v>2024.2914979757086</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <f>E8/2</f>
+        <v>1012.1457489878543</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>7</v>
       </c>
